--- a/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F57"/>
+  <dimension ref="A1:H57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,11 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
+          <t>Address</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
           <t>District</t>
         </is>
       </c>
@@ -483,6 +488,11 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
+          <t>SUSRHSGattipuraMagadi</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -510,6 +520,11 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
+          <t>G J C MalebennurHarihar</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -537,6 +552,11 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
+          <t>Bi Bi Raza Girls High School</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -562,7 +582,8 @@
           <t>DEVARAJA K R</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr">
         <is>
           <t>Deepti High School N R Pura</t>
         </is>
@@ -591,6 +612,11 @@
       </c>
       <c r="F7" t="inlineStr">
         <is>
+          <t>Bi Bi Raza Girls High School</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -618,6 +644,11 @@
       </c>
       <c r="F8" t="inlineStr">
         <is>
+          <t>G E S Kalaghatagi</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
           <t>Dharwad</t>
         </is>
       </c>
@@ -645,6 +676,11 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
+          <t>S G K H S BalaganurSindagi</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -672,6 +708,11 @@
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Govt. P U College For Boys Guledgudd</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -699,6 +740,11 @@
       </c>
       <c r="F11" t="inlineStr">
         <is>
+          <t>Dhareppa Katagighan S B H S MalaghanSindagi</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -726,6 +772,11 @@
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>G J C H S Junior College Belur Road</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>Chickmagalur</t>
         </is>
       </c>
@@ -751,7 +802,8 @@
           <t>KESHAVAPRASAD S</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr">
+      <c r="F13" t="inlineStr"/>
+      <c r="G13" t="inlineStr">
         <is>
           <t>D V S High School Shimoga</t>
         </is>
@@ -779,6 +831,11 @@
       </c>
       <c r="F14" t="inlineStr">
         <is>
+          <t>KIRAN KUMAR S R G J C N R Pura</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
           <t>Chikkamagaluru</t>
         </is>
       </c>
@@ -806,6 +863,11 @@
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>S B S Comp. P U CollegeBidaradahally</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -833,6 +895,11 @@
       </c>
       <c r="F16" t="inlineStr">
         <is>
+          <t>Govt. High School for BoysR C Road</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
           <t>Hassan</t>
         </is>
       </c>
@@ -860,6 +927,11 @@
       </c>
       <c r="F17" t="inlineStr">
         <is>
+          <t>B E S P U CollegeKadapattiJamkhandi</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -887,6 +959,11 @@
       </c>
       <c r="F18" t="inlineStr">
         <is>
+          <t>Govt. P U College (High School Section) Ilkal</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -914,6 +991,11 @@
       </c>
       <c r="F19" t="inlineStr">
         <is>
+          <t>G J C (H S) MuthinakoppaN R Pura</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
           <t>Chikmagaluru</t>
         </is>
       </c>
@@ -939,7 +1021,8 @@
           <t>MD MUKRAM</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr">
+      <c r="F20" t="inlineStr"/>
+      <c r="G20" t="inlineStr">
         <is>
           <t>Al – Ameen Comp. P U College Bidar</t>
         </is>
@@ -966,7 +1049,8 @@
           <t>MD SALEEMUDDIN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr">
+      <c r="F21" t="inlineStr"/>
+      <c r="G21" t="inlineStr">
         <is>
           <t>H M S M Urdu High School Bidar</t>
         </is>
@@ -995,6 +1079,11 @@
       </c>
       <c r="F22" t="inlineStr">
         <is>
+          <t>Siraj Ul Uloom Urdu High School Manhalli</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
           <t>Bidar</t>
         </is>
       </c>
@@ -1022,6 +1111,11 @@
       </c>
       <c r="F23" t="inlineStr">
         <is>
+          <t>G H S Pillangere</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1049,6 +1143,11 @@
       </c>
       <c r="F24" t="inlineStr">
         <is>
+          <t>G H S SangameshwarKalaghatagi</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
           <t>Dharawad</t>
         </is>
       </c>
@@ -1076,6 +1175,11 @@
       </c>
       <c r="F25" t="inlineStr">
         <is>
+          <t>Govt. Girls High School Sedam</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1103,6 +1207,11 @@
       </c>
       <c r="F26" t="inlineStr">
         <is>
+          <t>S J R Junior College Balehonnur</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -1130,6 +1239,11 @@
       </c>
       <c r="F27" t="inlineStr">
         <is>
+          <t>Poojya Shantaveereshwara High School Sedam</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1155,7 +1269,8 @@
           <t>PADMANABHAPRASAD S M</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr">
+      <c r="F28" t="inlineStr"/>
+      <c r="G28" t="inlineStr">
         <is>
           <t>Basaveshwara High School Shimmogga</t>
         </is>
@@ -1184,6 +1299,11 @@
       </c>
       <c r="F29" t="inlineStr">
         <is>
+          <t>S P P U College (H S) TerdalJamakhandi</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
           <t>Bagalkot</t>
         </is>
       </c>
@@ -1209,7 +1329,8 @@
           <t>PATIL A V</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr">
+      <c r="F30" t="inlineStr"/>
+      <c r="G30" t="inlineStr">
         <is>
           <t>Marathi Vidyalaya Vijayapur</t>
         </is>
@@ -1238,6 +1359,11 @@
       </c>
       <c r="F31" t="inlineStr">
         <is>
+          <t>G H S Umblebylu</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1266,6 +1392,11 @@
       </c>
       <c r="F32" t="inlineStr">
         <is>
+          <t>Mudigere</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
           <t>Chickmagalur</t>
         </is>
       </c>
@@ -1290,7 +1421,8 @@
           <t>PRASHANT S PATTADAKALL</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr">
+      <c r="F33" t="inlineStr"/>
+      <c r="G33" t="inlineStr">
         <is>
           <t>PRASHANT S PATTADAKAL</t>
         </is>
@@ -1308,6 +1440,11 @@
         </is>
       </c>
       <c r="F34" t="inlineStr">
+        <is>
+          <t>Shri Sharanabasaveshwara High School IddalagiHunagund</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
         <is>
           <t>Bagalkot</t>
         </is>
@@ -1336,6 +1473,11 @@
       </c>
       <c r="F35" t="inlineStr">
         <is>
+          <t>S K A R H S Bannikuppe</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1363,6 +1505,11 @@
       </c>
       <c r="F36" t="inlineStr">
         <is>
+          <t>Sri Guru Karibasaveswara High School UkkadagatriHarihara</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1388,7 +1535,8 @@
           <t>RAVIKUMAR S R</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr">
+      <c r="F37" t="inlineStr"/>
+      <c r="G37" t="inlineStr">
         <is>
           <t>D V S High School Shimoga</t>
         </is>
@@ -1417,6 +1565,11 @@
       </c>
       <c r="F38" t="inlineStr">
         <is>
+          <t>K P S Anavatti (G P U C) Soraba</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1444,6 +1597,11 @@
       </c>
       <c r="F39" t="inlineStr">
         <is>
+          <t>B S B S R H S Bidadi</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1471,6 +1629,11 @@
       </c>
       <c r="F40" t="inlineStr">
         <is>
+          <t>Sri Lakshman Rao GurjerHigh School JavaliMudigere</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
           <t>Chickmagalur</t>
         </is>
       </c>
@@ -1498,6 +1661,11 @@
       </c>
       <c r="F41" t="inlineStr">
         <is>
+          <t>S M H S KudurMagadi</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1525,6 +1693,11 @@
       </c>
       <c r="F42" t="inlineStr">
         <is>
+          <t>Govt. High School Hirebyle Mudigere</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
           <t>Chikmagalur</t>
         </is>
       </c>
@@ -1552,6 +1725,11 @@
       </c>
       <c r="F43" t="inlineStr">
         <is>
+          <t>G H S MaganageraJewargi</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1579,6 +1757,11 @@
       </c>
       <c r="F44" t="inlineStr">
         <is>
+          <t>G H S SaluruShikaripura</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1606,6 +1789,11 @@
       </c>
       <c r="F45" t="inlineStr">
         <is>
+          <t>S V H S Hombegowdana Doddi</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1633,6 +1821,11 @@
       </c>
       <c r="F46" t="inlineStr">
         <is>
+          <t>S V R High School MotaganahallyMagadi</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
           <t>Ramanagara</t>
         </is>
       </c>
@@ -1660,6 +1853,11 @@
       </c>
       <c r="F47" t="inlineStr">
         <is>
+          <t>Banakal High School BanakalMudigere</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
           <t>Chikamagalur</t>
         </is>
       </c>
@@ -1685,7 +1883,8 @@
           <t>SRINIVAS MARI</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr">
+      <c r="F48" t="inlineStr"/>
+      <c r="G48" t="inlineStr">
         <is>
           <t>Shree Sharabayya Gada Girls High School Nehr</t>
         </is>
@@ -1703,6 +1902,11 @@
         </is>
       </c>
       <c r="F49" t="inlineStr">
+        <is>
+          <t>GuniKalaburagi North</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
         <is>
           <t>Kalburagi</t>
         </is>
@@ -1730,7 +1934,8 @@
           <t>STEEVEN RODRIGUES A</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr">
+      <c r="F50" t="inlineStr"/>
+      <c r="G50" t="inlineStr">
         <is>
           <t>Hassan</t>
         </is>
@@ -1759,6 +1964,11 @@
       </c>
       <c r="F51" t="inlineStr">
         <is>
+          <t>G J C BannikoduHarihara</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
           <t>Davanagere</t>
         </is>
       </c>
@@ -1786,6 +1996,11 @@
       </c>
       <c r="F52" t="inlineStr">
         <is>
+          <t>K P S Anavatti(G P U C) Soraba</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1813,6 +2028,11 @@
       </c>
       <c r="F53" t="inlineStr">
         <is>
+          <t>S S H S Haramaghatta</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
           <t>Shimoga</t>
         </is>
       </c>
@@ -1840,6 +2060,11 @@
       </c>
       <c r="F54" t="inlineStr">
         <is>
+          <t>Govt. High School Jayawadagim Basavana Bagewadi</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1867,6 +2092,11 @@
       </c>
       <c r="F55" t="inlineStr">
         <is>
+          <t>Govt. P U College For Girls</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
           <t>Vijayapur</t>
         </is>
       </c>
@@ -1894,6 +2124,11 @@
       </c>
       <c r="F56" t="inlineStr">
         <is>
+          <t>Govt. High School C C I KurkuntaSedam</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
           <t>Kalaburagi</t>
         </is>
       </c>
@@ -1920,6 +2155,11 @@
         </is>
       </c>
       <c r="F57" t="inlineStr">
+        <is>
+          <t>Govt. High School RangolSedam</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
         <is>
           <t>Kalburagi</t>
         </is>

--- a/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H57"/>
+  <dimension ref="A1:G57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -525,7 +525,7 @@
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -557,7 +557,7 @@
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -582,7 +582,6 @@
           <t>DEVARAJA K R</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr"/>
       <c r="G6" t="inlineStr">
         <is>
           <t>Deepti High School N R Pura</t>
@@ -617,7 +616,7 @@
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -681,7 +680,7 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -745,7 +744,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -802,7 +801,6 @@
           <t>KESHAVAPRASAD S</t>
         </is>
       </c>
-      <c r="F13" t="inlineStr"/>
       <c r="G13" t="inlineStr">
         <is>
           <t>D V S High School Shimoga</t>
@@ -836,7 +834,7 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Chikkamagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1021,7 +1019,6 @@
           <t>MD MUKRAM</t>
         </is>
       </c>
-      <c r="F20" t="inlineStr"/>
       <c r="G20" t="inlineStr">
         <is>
           <t>Al – Ameen Comp. P U College Bidar</t>
@@ -1049,7 +1046,6 @@
           <t>MD SALEEMUDDIN</t>
         </is>
       </c>
-      <c r="F21" t="inlineStr"/>
       <c r="G21" t="inlineStr">
         <is>
           <t>H M S M Urdu High School Bidar</t>
@@ -1148,7 +1144,7 @@
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>Dharawad</t>
+          <t>Dharwad</t>
         </is>
       </c>
     </row>
@@ -1180,7 +1176,7 @@
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1244,7 +1240,7 @@
       </c>
       <c r="G27" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1269,7 +1265,6 @@
           <t>PADMANABHAPRASAD S M</t>
         </is>
       </c>
-      <c r="F28" t="inlineStr"/>
       <c r="G28" t="inlineStr">
         <is>
           <t>Basaveshwara High School Shimmogga</t>
@@ -1329,7 +1324,6 @@
           <t>PATIL A V</t>
         </is>
       </c>
-      <c r="F30" t="inlineStr"/>
       <c r="G30" t="inlineStr">
         <is>
           <t>Marathi Vidyalaya Vijayapur</t>
@@ -1421,7 +1415,6 @@
           <t>PRASHANT S PATTADAKALL</t>
         </is>
       </c>
-      <c r="F33" t="inlineStr"/>
       <c r="G33" t="inlineStr">
         <is>
           <t>PRASHANT S PATTADAKAL</t>
@@ -1510,7 +1503,7 @@
       </c>
       <c r="G36" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -1535,7 +1528,6 @@
           <t>RAVIKUMAR S R</t>
         </is>
       </c>
-      <c r="F37" t="inlineStr"/>
       <c r="G37" t="inlineStr">
         <is>
           <t>D V S High School Shimoga</t>
@@ -1730,7 +1722,7 @@
       </c>
       <c r="G43" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1883,7 +1875,6 @@
           <t>SRINIVAS MARI</t>
         </is>
       </c>
-      <c r="F48" t="inlineStr"/>
       <c r="G48" t="inlineStr">
         <is>
           <t>Shree Sharabayya Gada Girls High School Nehr</t>
@@ -1908,7 +1899,7 @@
       </c>
       <c r="G49" t="inlineStr">
         <is>
-          <t>Kalburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1934,7 +1925,6 @@
           <t>STEEVEN RODRIGUES A</t>
         </is>
       </c>
-      <c r="F50" t="inlineStr"/>
       <c r="G50" t="inlineStr">
         <is>
           <t>Hassan</t>
@@ -1969,7 +1959,7 @@
       </c>
       <c r="G51" t="inlineStr">
         <is>
-          <t>Davanagere</t>
+          <t>Davangere</t>
         </is>
       </c>
     </row>
@@ -2065,7 +2055,7 @@
       </c>
       <c r="G54" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -2097,7 +2087,7 @@
       </c>
       <c r="G55" t="inlineStr">
         <is>
-          <t>Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -2129,7 +2119,7 @@
       </c>
       <c r="G56" t="inlineStr">
         <is>
-          <t>Kalaburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -2161,7 +2151,7 @@
       </c>
       <c r="G57" t="inlineStr">
         <is>
-          <t>Kalburagi</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>

--- a/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
+++ b/mathTransformed/HMPSTT_(2019-10-31)_53_4.xlsx
@@ -584,7 +584,7 @@
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Deepti High School N R Pura</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -776,7 +776,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Chickmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -803,7 +803,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>D V S High School Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -994,7 +994,7 @@
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>Chikmagaluru</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1048,7 +1048,7 @@
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>H M S M Urdu High School Bidar</t>
+          <t>Bidar</t>
         </is>
       </c>
     </row>
@@ -1112,7 +1112,7 @@
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1267,7 +1267,7 @@
       </c>
       <c r="G28" t="inlineStr">
         <is>
-          <t>Basaveshwara High School Shimmogga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1326,7 +1326,7 @@
       </c>
       <c r="G30" t="inlineStr">
         <is>
-          <t>Marathi Vidyalaya Vijayapur</t>
+          <t>Vijayapura (Bijapur)</t>
         </is>
       </c>
     </row>
@@ -1358,7 +1358,7 @@
       </c>
       <c r="G31" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1391,7 +1391,7 @@
       </c>
       <c r="G32" t="inlineStr">
         <is>
-          <t>Chickmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1530,7 +1530,7 @@
       </c>
       <c r="G37" t="inlineStr">
         <is>
-          <t>D V S High School Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1562,7 +1562,7 @@
       </c>
       <c r="G38" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1626,7 +1626,7 @@
       </c>
       <c r="G40" t="inlineStr">
         <is>
-          <t>Chickmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1690,7 +1690,7 @@
       </c>
       <c r="G42" t="inlineStr">
         <is>
-          <t>Chikmagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1754,7 +1754,7 @@
       </c>
       <c r="G44" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -1850,7 +1850,7 @@
       </c>
       <c r="G47" t="inlineStr">
         <is>
-          <t>Chikamagalur</t>
+          <t>Chikkamagaluru (Chikmagalur)</t>
         </is>
       </c>
     </row>
@@ -1877,7 +1877,7 @@
       </c>
       <c r="G48" t="inlineStr">
         <is>
-          <t>Shree Sharabayya Gada Girls High School Nehr</t>
+          <t>Kalaburagi (Gulbarga)</t>
         </is>
       </c>
     </row>
@@ -1991,7 +1991,7 @@
       </c>
       <c r="G52" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
@@ -2023,7 +2023,7 @@
       </c>
       <c r="G53" t="inlineStr">
         <is>
-          <t>Shimoga</t>
+          <t>Shivamogga (Shimoga)</t>
         </is>
       </c>
     </row>
